--- a/OSPO Guide Table of Contents .xlsx
+++ b/OSPO Guide Table of Contents .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ax1g\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{906D0D72-B48E-4B54-AFBD-622288C13A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E18910B-ABC1-4770-9D45-119B58AC2CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4460" yWindow="990" windowWidth="14400" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="85">
   <si>
     <t xml:space="preserve">Topic </t>
   </si>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t>FAQ</t>
+  </si>
+  <si>
+    <t>Remy</t>
   </si>
 </sst>
 </file>
@@ -685,7 +688,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -744,7 +747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -752,7 +755,7 @@
       <c r="C3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -764,7 +767,9 @@
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="C5" s="5"/>
       <c r="E5" s="5"/>
     </row>
@@ -805,7 +810,7 @@
       <c r="C10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
@@ -864,7 +869,7 @@
       <c r="C16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
@@ -975,7 +980,7 @@
       <c r="C26" s="5"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>42</v>
       </c>
@@ -1276,7 +1281,7 @@
       <c r="C55" s="5"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>80</v>
       </c>

--- a/OSPO Guide Table of Contents .xlsx
+++ b/OSPO Guide Table of Contents .xlsx
@@ -11,24 +11,24 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A38">
+    <comment authorId="0" ref="A47">
       <text>
         <t xml:space="preserve">https://github.com/todogroup/guides/blob/master/open-source-reading-list.md
 	-Aayat Ali</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F39">
+    <comment authorId="0" ref="F48">
       <text>
         <t xml:space="preserve">Information on how to make go links https://golinks.github.io/golinks/
 	-Aayat Ali</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A65">
+    <comment authorId="0" ref="A74">
       <text>
         <t xml:space="preserve">Would we like a broader glossary that covers terms outside of Git/Github? For example, we can have a metrics glossary that defines terms like libyears and bus factor, etc.
 	-Natalia Luzuriaga</t>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="133">
   <si>
     <t xml:space="preserve">Topic </t>
   </si>
@@ -71,10 +71,16 @@
     <t xml:space="preserve">Github OSPO guide </t>
   </si>
   <si>
-    <t>00. Landing page: Welcome to CMS' OSPO Guide</t>
-  </si>
-  <si>
-    <t>What's in the guide</t>
+    <t>00. Landing page: OSPO (ReadMe)</t>
+  </si>
+  <si>
+    <t>What's in the guide (Table of Contents, list of directories)</t>
+  </si>
+  <si>
+    <t>Aayat</t>
+  </si>
+  <si>
+    <t>Committed to repo</t>
   </si>
   <si>
     <t xml:space="preserve">How to use it </t>
@@ -83,28 +89,71 @@
     <t xml:space="preserve">Functional statement </t>
   </si>
   <si>
-    <t>Aayat</t>
-  </si>
-  <si>
     <t>Low hanging fruit</t>
   </si>
   <si>
     <t>4.12.24</t>
   </si>
   <si>
+    <t xml:space="preserve">Push this to the repo </t>
+  </si>
+  <si>
+    <t>Link to TRA</t>
+  </si>
+  <si>
+    <t>Link to OSS policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contribution guidelines </t>
+  </si>
+  <si>
+    <t>0.5. Main Root</t>
+  </si>
+  <si>
+    <t>Acknowledgements</t>
+  </si>
+  <si>
+    <t>Policies (Open Source Policy, Responsible Disclosure Policy)</t>
+  </si>
+  <si>
+    <t>Public Domain Notice</t>
+  </si>
+  <si>
+    <t>SECURITY.md</t>
+  </si>
+  <si>
+    <t>Remy</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>CONTRIBUTING.md</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Need consult with Remy </t>
+  </si>
+  <si>
+    <t>06.08.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work in progress </t>
+  </si>
+  <si>
+    <t>CODE_OF_CONDUCT.md</t>
+  </si>
+  <si>
     <t>Commit to repo</t>
   </si>
   <si>
-    <t xml:space="preserve">Push this to the repo </t>
-  </si>
-  <si>
-    <t>Link to TRA</t>
-  </si>
-  <si>
-    <t>Link to OS policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contribution guidelines </t>
+    <t>COMMUNITY_GUIDELINES.md</t>
   </si>
   <si>
     <t xml:space="preserve">01. Inbound </t>
@@ -208,6 +257,9 @@
     <t xml:space="preserve">Data and visualizations </t>
   </si>
   <si>
+    <t>Open data and content. Link to data.cms.gov . You should use creative commons. Link to CMS gource repo, pycon poster repo, and decks repo. Point to best practices instead of re-creating. Check out data viz on metrics repo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Achiving repos </t>
   </si>
   <si>
@@ -221,9 +273,6 @@
   </si>
   <si>
     <t xml:space="preserve">Github Management Policy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Work in progress </t>
   </si>
   <si>
     <t xml:space="preserve">03. Growing </t>
@@ -288,6 +337,13 @@
     </r>
   </si>
   <si>
+    <t>AI Guidance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link to AI explorers repo, link to HHS trustworthy AI playbook (https://www.hhs.gov/sites/default/files/hhs-trustworthy-ai-playbook.pdf
+), AI.gov. </t>
+  </si>
+  <si>
     <t xml:space="preserve">What is a license? Open source casebook, AGPL policy </t>
   </si>
   <si>
@@ -347,7 +403,7 @@
     <t>Conferences we recommended</t>
   </si>
   <si>
-    <t xml:space="preserve">Are you thinking all of these can ge go/links once we get them in github? look at conference ticket on kanban board </t>
+    <t>Are you thinking all of these can ge go/links once we get them in github? look at conference ticket on kanban board. Ask in the CMS OC channel who owns go links? go.cms.gov</t>
   </si>
   <si>
     <t xml:space="preserve">Contributing upstream </t>
@@ -356,7 +412,21 @@
     <t xml:space="preserve">How to work at DSAC (if you need help with engineering) </t>
   </si>
   <si>
-    <t xml:space="preserve">Look into CMS go links***. Link to the internal CMS gov repo, anyone outside wouldn't be able to get to it. github.cms.gov. Maybe dev onboarding, asking blaine about this. Not sure where to get the go link, maybe ask helpdesk or look at service connect now. Intranet thing. Maybe ask in computer pain about go links. Submitted a helpdesk ticket asking about go links </t>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">No go links at CMS. Blaine sent what he has created to onboard engineers: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://github.cms.gov/DSAC/dev-onboarding</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Bug bounty </t>
@@ -401,7 +471,10 @@
     <t xml:space="preserve">Recruiting developers </t>
   </si>
   <si>
-    <t>Code of conduct</t>
+    <t>Guidance around code of conduct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maturity model repo scaffoder code of conduct (lower case) </t>
   </si>
   <si>
     <t xml:space="preserve">Marketing open source projects </t>
@@ -449,12 +522,49 @@
   <si>
     <t>History of open source at CMS (QPP open source pilot, look at OSPO policy)</t>
   </si>
+  <si>
+    <t xml:space="preserve">Case studies </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XZ case study </t>
+  </si>
+  <si>
+    <t>Innersource</t>
+  </si>
+  <si>
+    <t>Data write up from Pat on Databricks</t>
+  </si>
+  <si>
+    <t>https://cmsgov.slack.com/archives/CHDF1ELCQ/p1706721249261169?thread_ts=1706653649.523139&amp;cid=CHDF1ELCQ</t>
+  </si>
+  <si>
+    <t>AI HHS ChatGPT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>hhsgpt.hhs.gov</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> &amp; link to AI explorers</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Want to work at DSAC (onboarding for devs) </t>
+  </si>
+  <si>
+    <t>Move the md from growing to innersource directory</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -501,6 +611,10 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -534,7 +648,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -553,12 +667,18 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -573,6 +693,9 @@
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -581,6 +704,9 @@
     </xf>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -872,43 +998,47 @@
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="B5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="E5" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="E6" s="6"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -917,734 +1047,763 @@
         <v>19</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="E8" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
       <c r="E9" s="6"/>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
       <c r="E10" s="6"/>
     </row>
     <row r="11">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
       <c r="E11" s="6"/>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="9" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="13">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="8" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="9" t="s">
-        <v>28</v>
+      <c r="C15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="D16" s="10" t="s">
         <v>30</v>
       </c>
+      <c r="E16" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="9" t="s">
-        <v>32</v>
+      <c r="A18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="9" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="9" t="s">
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="11" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="9"/>
+      <c r="F23" s="10" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="9" t="s">
-        <v>47</v>
+      <c r="A24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="E25" s="6"/>
     </row>
     <row r="26">
-      <c r="A26" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="A26" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="E26" s="6"/>
+      <c r="F26" s="10" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="E27" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="s">
+      <c r="E28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="9" t="s">
+    </row>
+    <row r="29">
+      <c r="A29" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="B29" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="s">
+      <c r="E29" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="E29" s="9" t="s">
+    </row>
+    <row r="30">
+      <c r="A30" s="12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="B30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="7" t="s">
-        <v>57</v>
+      <c r="A31" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="E31" s="6"/>
+      <c r="F31" s="10"/>
     </row>
     <row r="32">
-      <c r="A32" s="10" t="s">
-        <v>58</v>
+      <c r="A32" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="B32" s="6"/>
-      <c r="C32" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="C32" s="6"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="4" t="s">
-        <v>59</v>
+      <c r="F32" s="10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="9"/>
+        <v>61</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="6"/>
       <c r="E33" s="6"/>
     </row>
     <row r="34">
-      <c r="A34" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="9" t="s">
+      <c r="A34" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="E35" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>65</v>
+      <c r="E36" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="6"/>
+      <c r="A37" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="E37" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>69</v>
-      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="E38" s="6"/>
     </row>
     <row r="39">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="4" t="s">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="12" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="15" t="s">
+      <c r="B40" s="6"/>
+      <c r="C40" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F40" s="9" t="s">
+    </row>
+    <row r="41">
+      <c r="A41" s="14" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9" t="s">
-        <v>75</v>
-      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="10"/>
+      <c r="E41" s="6"/>
     </row>
     <row r="42">
       <c r="A42" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F42" s="9" t="s">
+    </row>
+    <row r="44">
+      <c r="A44" s="15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="10" t="s">
+      <c r="B44" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="E43" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="10" t="s">
+    </row>
+    <row r="45">
+      <c r="A45" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="6"/>
-      <c r="E44" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F44" s="9" t="s">
+      <c r="B45" s="6"/>
+      <c r="C45" s="10"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="10" t="s">
+    <row r="46">
+      <c r="A46" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="E45" s="6"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="10" t="s">
+      <c r="B46" s="6"/>
+      <c r="C46" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
       <c r="E46" s="6"/>
     </row>
     <row r="47">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="E47" s="6"/>
+      <c r="B47" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="9" t="s">
+      <c r="A48" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="B48" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="E48" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="E49" s="6"/>
+      <c r="A49" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>88</v>
+      <c r="A50" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>90</v>
+      <c r="A51" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="10" t="s">
-        <v>91</v>
+      <c r="A52" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
-      <c r="E52" s="6"/>
+      <c r="E52" s="10" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B53" s="6"/>
+      <c r="A53" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="C53" s="6"/>
-      <c r="E53" s="6"/>
+      <c r="E53" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="16" t="s">
-        <v>93</v>
+      <c r="A54" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="E54" s="6"/>
     </row>
     <row r="55">
-      <c r="A55" s="16" t="s">
-        <v>94</v>
+      <c r="A55" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="E55" s="6"/>
     </row>
     <row r="56">
-      <c r="A56" s="10" t="s">
-        <v>95</v>
+      <c r="A56" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="B56" s="6"/>
-      <c r="C56" s="9"/>
+      <c r="C56" s="6"/>
       <c r="E56" s="6"/>
     </row>
     <row r="57">
-      <c r="A57" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="E57" s="6"/>
+      <c r="A57" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B58" s="6"/>
+      <c r="A58" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="C58" s="6"/>
       <c r="E58" s="6"/>
     </row>
     <row r="59">
-      <c r="A59" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="E59" s="6"/>
+      <c r="A59" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="E60" s="9" t="s">
-        <v>25</v>
+      <c r="A60" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="16" t="s">
-        <v>100</v>
+      <c r="A61" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
-      <c r="E61" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="E61" s="6"/>
     </row>
     <row r="62">
+      <c r="A62" s="17" t="s">
+        <v>107</v>
+      </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="E62" s="6"/>
     </row>
     <row r="63">
-      <c r="A63" s="7" t="s">
-        <v>101</v>
+      <c r="A63" s="19" t="s">
+        <v>108</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="E63" s="6"/>
     </row>
     <row r="64">
-      <c r="A64" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="A64" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="E64" s="6"/>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>104</v>
+      <c r="A65" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B65" s="6"/>
+      <c r="C65" s="10"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="10" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="8" t="s">
-        <v>105</v>
+      <c r="A66" s="19" t="s">
+        <v>112</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="E66" s="6"/>
-      <c r="F66" s="4" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="67">
-      <c r="A67" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="A67" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B67" s="6"/>
       <c r="C67" s="6"/>
-      <c r="E67" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="E67" s="6"/>
     </row>
     <row r="68">
+      <c r="A68" s="19" t="s">
+        <v>114</v>
+      </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="E68" s="6"/>
     </row>
     <row r="69">
+      <c r="A69" s="19" t="s">
+        <v>115</v>
+      </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
-      <c r="E69" s="6"/>
+      <c r="E69" s="10" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="70">
+      <c r="A70" s="19" t="s">
+        <v>116</v>
+      </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
-      <c r="E70" s="6"/>
+      <c r="E70" s="10" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="71">
       <c r="B71" s="6"/>
@@ -1652,36 +1811,76 @@
       <c r="E71" s="6"/>
     </row>
     <row r="72">
+      <c r="A72" s="11" t="s">
+        <v>117</v>
+      </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="E72" s="6"/>
     </row>
     <row r="73">
-      <c r="B73" s="6"/>
+      <c r="A73" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="C73" s="6"/>
       <c r="E73" s="6"/>
     </row>
     <row r="74">
-      <c r="B74" s="6"/>
+      <c r="A74" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="C74" s="6"/>
-      <c r="E74" s="6"/>
+      <c r="D74" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="75">
+      <c r="A75" s="9" t="s">
+        <v>121</v>
+      </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="E75" s="6"/>
+      <c r="F75" s="4" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="76">
-      <c r="B76" s="6"/>
+      <c r="A76" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="C76" s="6"/>
-      <c r="E76" s="6"/>
+      <c r="E76" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="77">
+      <c r="A77" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="E77" s="6"/>
     </row>
     <row r="78">
+      <c r="A78" s="9" t="s">
+        <v>125</v>
+      </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="E78" s="6"/>
@@ -1697,24 +1896,45 @@
       <c r="E80" s="6"/>
     </row>
     <row r="81">
+      <c r="A81" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="E81" s="6"/>
     </row>
     <row r="82">
+      <c r="A82" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
       <c r="E82" s="6"/>
+      <c r="F82" s="20" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="83">
+      <c r="A83" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
       <c r="E83" s="6"/>
+      <c r="F83" s="4" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="84">
+      <c r="A84" s="10" t="s">
+        <v>131</v>
+      </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
       <c r="E84" s="6"/>
+      <c r="F84" s="10" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="85">
       <c r="B85" s="6"/>
@@ -1791,16 +2011,64 @@
       <c r="C99" s="6"/>
       <c r="E99" s="6"/>
     </row>
+    <row r="100">
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="E100" s="6"/>
+    </row>
+    <row r="101">
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="E101" s="6"/>
+    </row>
+    <row r="102">
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="E102" s="6"/>
+    </row>
+    <row r="103">
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="E103" s="6"/>
+    </row>
+    <row r="104">
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="E104" s="6"/>
+    </row>
+    <row r="105">
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="E105" s="6"/>
+    </row>
+    <row r="106">
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="E106" s="6"/>
+    </row>
+    <row r="107">
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="E107" s="6"/>
+    </row>
+    <row r="108">
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="E108" s="6"/>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E99">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E17">
       <formula1>"Does not exist yet ,Pending approval,Complete,Work in progress ,Commit to repo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B3:B99">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B3:B108">
       <formula1>"Remy,Aayat,Natalia,Isaac,Intern"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C3:C99">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C3:C108">
       <formula1>"Low hanging fruit,Need consult with Remy ,High,hardmode"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E16 E18:E108">
+      <formula1>"Does not exist yet ,Pending approval,Complete,Work in progress ,Committed to repo"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -1809,26 +2077,33 @@
     <hyperlink r:id="rId4" location="tools-created-by-github-ospo" ref="F3"/>
     <hyperlink r:id="rId5" ref="A7"/>
     <hyperlink r:id="rId6" ref="A8"/>
-    <hyperlink r:id="rId7" ref="A16"/>
-    <hyperlink r:id="rId8" location=":~:text=Open%20Source%20Licensing" ref="F16"/>
-    <hyperlink r:id="rId9" ref="A19"/>
-    <hyperlink r:id="rId10" ref="A20"/>
-    <hyperlink r:id="rId11" ref="A21"/>
-    <hyperlink r:id="rId12" ref="A28"/>
-    <hyperlink r:id="rId13" ref="A29"/>
-    <hyperlink r:id="rId14" ref="F32"/>
-    <hyperlink r:id="rId15" ref="F36"/>
-    <hyperlink r:id="rId16" ref="A38"/>
-    <hyperlink r:id="rId17" ref="F39"/>
-    <hyperlink r:id="rId18" ref="A40"/>
-    <hyperlink r:id="rId19" ref="A42"/>
-    <hyperlink r:id="rId20" ref="A48"/>
-    <hyperlink r:id="rId21" ref="A50"/>
-    <hyperlink r:id="rId22" ref="A51"/>
-    <hyperlink r:id="rId23" ref="A65"/>
-    <hyperlink r:id="rId24" ref="F66"/>
+    <hyperlink r:id="rId7" ref="A15"/>
+    <hyperlink r:id="rId8" ref="A16"/>
+    <hyperlink r:id="rId9" ref="A17"/>
+    <hyperlink r:id="rId10" ref="A18"/>
+    <hyperlink r:id="rId11" ref="A24"/>
+    <hyperlink r:id="rId12" location=":~:text=Open%20Source%20Licensing" ref="F24"/>
+    <hyperlink r:id="rId13" ref="A27"/>
+    <hyperlink r:id="rId14" ref="A28"/>
+    <hyperlink r:id="rId15" ref="A29"/>
+    <hyperlink r:id="rId16" ref="A36"/>
+    <hyperlink r:id="rId17" ref="A37"/>
+    <hyperlink r:id="rId18" ref="F40"/>
+    <hyperlink r:id="rId19" ref="F44"/>
+    <hyperlink r:id="rId20" ref="A47"/>
+    <hyperlink r:id="rId21" ref="F48"/>
+    <hyperlink r:id="rId22" ref="A49"/>
+    <hyperlink r:id="rId23" ref="A51"/>
+    <hyperlink r:id="rId24" ref="F53"/>
+    <hyperlink r:id="rId25" ref="A57"/>
+    <hyperlink r:id="rId26" ref="A59"/>
+    <hyperlink r:id="rId27" ref="A60"/>
+    <hyperlink r:id="rId28" ref="A74"/>
+    <hyperlink r:id="rId29" ref="F75"/>
+    <hyperlink r:id="rId30" ref="F82"/>
+    <hyperlink r:id="rId31" ref="F83"/>
   </hyperlinks>
-  <drawing r:id="rId25"/>
-  <legacyDrawing r:id="rId26"/>
+  <drawing r:id="rId32"/>
+  <legacyDrawing r:id="rId33"/>
 </worksheet>
 </file>